--- a/MVO Assignment.xlsx
+++ b/MVO Assignment.xlsx
@@ -1,105 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uditdhand/Documents/MSBA/FA - Summer Term/MVO Assignment/Github/financial_analytics/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9E5D5-614E-624A-BC8E-F488BD6C27CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Input required stocks in the yellow cells:</t>
-  </si>
-  <si>
-    <t>Enter period and interval parameters</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>d: day, mo:month, w: week</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>1mo</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>85mo</t>
-  </si>
-  <si>
-    <t>Risk free rate</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Menlo"/>
+      <family val="2"/>
+      <color rgb="FFCE9178"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,29 +67,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,89 +437,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col width="19.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.83203125" customWidth="1" style="2" min="2" max="3"/>
+    <col width="21.6640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Input required stocks in the yellow cells:</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Enter period and interval parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>d: day, mo:month, w: week</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" ht="16" customHeight="1">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Interval</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1mo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Risk free rate</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -525,29 +564,537 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Exp. Ret.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02237978513892453</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006997666269683986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01332204535838656</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01117044933083402</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01365863551607532</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Std. Dev.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04465580876080658</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cov. Mat.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.007576292344164369</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002005982498314829</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001558719875345943</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001370243159758579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001555552152229028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>0.002005982498314829</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005064807384351115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001549394991192784</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00174002832191711</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0006762453735699272</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>0.001558719875345943</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001549394991192784</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002598262412975342</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001049645375169995</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00123865531852071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.001370243159758579</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00174002832191711</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001049645375169995</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.004427817640475744</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0008735613337628689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>0.001555552152229028</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0006762453735699272</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00123865531852071</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0008735613337628689</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.002950294820513106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Client Portfolio Stocks:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stock Average Return:</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02237978724539413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006997668776951506</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01332204253360869</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01117044777078469</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01365863588846816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stock Standard Deviation:</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08652841752524064</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07074761266757473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05067243499138208</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06614923021904018</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05399616208466668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Stock Kurtosis:</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.6491665823253596</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.014524736714092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.269189702495271</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7226592047335911</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7090942762491879</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stock Skew:</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.09356845459098055</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.07981097223800847</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1153529304114476</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5414779898037958</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.5016715796895258</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Current client portfolio metrics:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01350571644304144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1620685973164972</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Annualized Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04465581391916347</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1546922771226652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Annualized Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2464565188076994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8537504248629798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Global Min Variance portfolio metrics:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0124979259303132</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1499751111637584</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04124341174443538</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.14287136923769</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2424126789574369</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8397421527063273</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Efficient portfolio (minimize variance) metrics:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01350571644304144</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1620685973164973</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04167847930044292</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1443784874611498</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2640623321140337</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9147387511732662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Optimum Risky Protfolio metrics:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0172876874235448</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2074522490825376</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.05015910254520721</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1737562281407125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2948156301284898</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.021271300495957</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVO Assignment.xlsx
+++ b/MVO Assignment.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="covmat">#REF!</definedName>
+    <definedName name="exp_ret">#REF!</definedName>
+    <definedName name="TICKERS">#REF!</definedName>
+    <definedName name="weight">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -35,10 +40,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFCE9178"/>
-      <sz val="12"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -64,10 +70,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -75,11 +82,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,16 +454,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col width="19.83203125" customWidth="1" min="1" max="1"/>
     <col width="10.83203125" customWidth="1" style="2" min="2" max="3"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21.6640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -470,12 +483,13 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.2</v>
-      </c>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0.001466275659824047</v>
+      </c>
+      <c r="D3" s="7" t="n"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>d: day, mo:month, w: week</t>
@@ -485,70 +499,94 @@
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.2</v>
-      </c>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0.1085043988269795</v>
+      </c>
+      <c r="D4" s="7" t="n"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>MCD</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.2</v>
-      </c>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.005865102639296188</v>
+      </c>
+      <c r="D5" s="7" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>42309</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.2</v>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0.002932551319648094</v>
+      </c>
+      <c r="D6" s="7" t="n"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>44927</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.2</v>
-      </c>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0.007331378299120235</v>
+      </c>
+      <c r="D7" s="7" t="n"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Interval</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>1mo</t>
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>0.01173020527859238</v>
+      </c>
+      <c r="D8" s="7" t="n"/>
+    </row>
     <row r="9">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>0.05131964809384165</v>
+      </c>
+      <c r="D9" s="7" t="n"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Risk free rate</t>
@@ -557,6 +595,146 @@
       <c r="F9" s="4" t="n">
         <v>0.03</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>0.04838709677419355</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Sum</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.09237536656891496</v>
+      </c>
+      <c r="D11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>0.05131964809384165</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>0.1070381231671554</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0.07771260997067449</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0.124633431085044</v>
+      </c>
+      <c r="D15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.05571847507331378</v>
+      </c>
+      <c r="D16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0.02932551319648094</v>
+      </c>
+      <c r="D17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>0.1011730205278592</v>
+      </c>
+      <c r="D18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.0689149560117302</v>
+      </c>
+      <c r="D19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.04985337243401759</v>
+      </c>
+      <c r="D20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.004398826979472141</v>
+      </c>
+      <c r="D21" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,10 +747,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -585,27 +763,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>AAPL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MCD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>WMT</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -616,119 +864,1197 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02237978513892453</v>
+        <v>0.009617602551001754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006997666269683986</v>
+        <v>0.01061806251587135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01332204535838656</v>
+        <v>0.01047893337648097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01117044933083402</v>
+        <v>0.006877550385063083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01365863551607532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Std. Dev.</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04465580876080658</v>
+        <v>0.01808786285033826</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04466093073072485</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00699766436593809</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01117045056761857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02237978770475042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01490246711547722</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01172411643005564</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.06164514773436639</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1952406533757012</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04040141534664503</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.006617192691654433</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01330670120762459</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.005147025682623598</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01229552370635794</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01663078033429726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Std. Dev. (Client Portfolio)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2732427199079702</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Cov. Mat.</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.007576292344164369</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002005982498314829</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001558719875345943</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.001370243159758579</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001555552152229028</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n">
-        <v>0.002005982498314829</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.005064807384351115</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.001549394991192784</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00174002832191711</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0006762453735699272</v>
-      </c>
-    </row>
-    <row r="8">
       <c r="B8" t="n">
-        <v>0.001558719875345943</v>
+        <v>0.02482067748671079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001549394991192784</v>
+        <v>0.01040156357531148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002598262412975342</v>
+        <v>0.00399667211709292</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001049645375169995</v>
+        <v>0.007990205362467513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00123865531852071</v>
+        <v>0.002589672526872735</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003205301088445677</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.002976514974883832</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.002514349401023871</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.003727724445591146</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0009360395657905567</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0008677398118119027</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.03914619664792528</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07539971266726826</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.008968056142836914</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.001900976231686868</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.006799597492131039</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.008583662595729246</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.00782256755645136</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.007742423304142434</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.001370243159758579</v>
+        <v>0.01040156357531148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00174002832191711</v>
+        <v>0.01209142996479388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001049645375169995</v>
+        <v>0.003849043636683504</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004427817640475744</v>
+        <v>0.005968417967104466</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008735613337628689</v>
+        <v>0.001846327012458179</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.002355043559780647</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003188234753611391</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.000999437777860784</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001879843894784899</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0009727294252848763</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0003904209881736019</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01039363878811337</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.003850016018476093</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.004302472147598151</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0004165032082082104</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.004774587229223947</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.007416176798191444</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.005379163231489466</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.005104657725796715</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>0.001555552152229028</v>
+        <v>0.00399667211709292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006762453735699272</v>
+        <v>0.003849043636683504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00123865531852071</v>
+        <v>0.003085234712690141</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0008735613337628689</v>
+        <v>0.00314277714442304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002950294820513106</v>
+        <v>0.00206186396818145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.002930338135568901</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002317378663053001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0009248000089575161</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001713004674578654</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001484019544496459</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0006309495221890683</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.004586203602421457</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.001667858774021916</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003043977421682952</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00177975038059966</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.002871225579159138</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.004339177268429016</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.003082767341071277</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.003507569561360859</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>0.007990205362467513</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005968417967104466</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00314277714442304</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01134956199010669</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003140055588404942</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.004871860859414569</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001966705583619226</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001172313763141758</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0037043033294621</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002533120920169505</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0009866192722690324</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.02270073866057686</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04114728921330729</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.005296060513262309</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.001039728277241193</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.004630501000111333</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.006163344568915738</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005211071027090392</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.005298635512940087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>0.002589672526872735</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001846327012458179</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00206186396818145</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.003140055588404942</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.004649540973455937</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.005297013747683467</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.002576699829061721</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.002147063311379513</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002717361681694597</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.003131279623933827</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0008771259791010506</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.005046769828641765</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.003374073623044707</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00371581549894697</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.002305387146268168</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.002796167316639701</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.003653739589183145</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.003088713731734358</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.003264386507636857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>0.003205301088445677</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002355043559780647</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.002930338135568901</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004871860859414569</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.005297013747683467</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01922330639069227</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.002524859064395055</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.002235814679762968</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006994675218976794</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.007039103732705839</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0002254336017866641</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01052390599451469</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.00367892025246594</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.008806814391149751</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.004557996120232391</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.003808629521761335</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.004803109471467136</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.005194747615833141</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.005066326220511487</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>0.002976514974883832</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003188234753611391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.002317378663053001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001966705583619226</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.002576699829061721</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.002524859064395055</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.005064809020443375</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001740031029420631</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002005985785828763</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0018293862798114</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.001217782013603457</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.001747905620065165</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.008578793310596855</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.001178508869293923</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.00219789223690839</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.00250571550792017</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.003643221646122119</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.002983356959040376</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.002610145081531479</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>0.002514349401023871</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.000999437777860784</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0009248000089575161</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001172313763141758</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.002147063311379513</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.002235814679762968</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001740031029420631</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.004427816035278269</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001370243035701365</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.001601390830754738</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0008979984414707185</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.00228526976880732</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.001933405252063343</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.002202405762864611</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.0001055991611383502</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.001589888462257814</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.001720934828456087</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.001360334331223151</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.001449224572171731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>0.003727724445591146</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.001879843894784899</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001713004674578654</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0037043033294621</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002717361681694597</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.006994675218976794</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.002005985785828763</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001370243035701365</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007576293966018728</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.004565748042134278</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.001215875287651075</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.004458005777716876</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.001041921465116549</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.009142254205070132</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.00145325776283483</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.001973696714039039</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.003372831672455009</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.00342078003129096</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.003211997811151897</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>0.0009360395657905567</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0009727294252848763</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001484019544496459</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002533120920169505</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003131279623933827</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.007039103732705839</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0018293862798114</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001601390830754738</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.004565748042134278</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.008077659872470208</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.320831633344393e-05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.004509857027719422</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.001607950899833744</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.008271375806552118</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.002601895310316441</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.001693169362639075</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.003363213281699011</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.002337840801987655</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.002693037017880123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>0.0008677398118119027</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0003904209881736019</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0006309495221890683</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0009866192722690324</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0008771259791010506</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002254336017866641</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.001217782013603457</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0008979984414707185</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001215875287651075</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.320831633344393e-05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.002082284806674108</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.004611538456142626</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01629926120017284</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0009307794843196304</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0009003948418144078</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0005136365659548118</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0007713168830789285</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0006675049484464456</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0005666912289188227</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>0.03914619664792528</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01039363878811337</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.004586203602421457</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02270073866057686</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.005046769828641765</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01052390599451469</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.001747905620065165</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00228526976880732</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.004458005777716876</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.004509857027719422</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.004611538456142626</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4217576386303883</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.038358425605987</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02009001717419795</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.004979090526581033</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.005766662501928329</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.005188590141547311</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.01042302413032943</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.005936880280577274</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>0.07539971266726826</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003850016018476093</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.001667858774021916</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04114728921330729</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003374073623044707</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.00367892025246594</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.008578793310596855</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.001933405252063343</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.001041921465116549</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.001607950899833744</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.01629926120017284</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.038358425605987</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.158235268650799</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03158293207105449</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01485444634025002</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.002972109264335623</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.007105692325670905</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.007900804872616232</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.004060760856642779</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>0.008968056142836914</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.004302472147598151</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.003043977421682952</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.005296060513262309</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00371581549894697</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.008806814391149751</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.001178508869293923</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.002202405762864611</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.009142254205070132</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.008271375806552118</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0009307794843196304</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02009001717419795</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03158293207105449</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03565372218226662</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.002862831566656422</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.002685983319693542</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.005296723674268687</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.005317175893192092</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.005701757749056549</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>-0.001900976231686868</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0004165032082082104</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.00177975038059966</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001039728277241193</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.002305387146268168</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.004557996120232391</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00219789223690839</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0001055991611383502</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00145325776283483</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002601895310316441</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0009003948418144078</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.004979090526581033</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01485444634025002</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.002862831566656422</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.01235393724357499</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.001118488820838047</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.001778646043796039</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0009699836052281289</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.002042587487120246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>0.006799597492131039</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.004774587229223947</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.002871225579159138</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.004630501000111333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.002796167316639701</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.003808629521761335</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00250571550792017</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001589888462257814</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001973696714039039</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001693169362639075</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0005136365659548118</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.005766662501928329</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.002972109264335623</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.002685983319693542</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.001118488820838047</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.005508952566755386</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.006406898130962478</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.005416257453352237</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.00538256765028844</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>0.008583662595729246</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007416176798191444</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.004339177268429016</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.006163344568915738</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.003653739589183145</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.004803109471467136</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.003643221646122119</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.001720934828456087</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.003372831672455009</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.003363213281699011</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0007713168830789285</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.005188590141547311</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.007105692325670905</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.005296723674268687</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.001778646043796039</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.006406898130962478</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01015681567054285</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00717513450094646</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.00746076949279977</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>0.00782256755645136</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.005379163231489466</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.003082767341071277</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005211071027090392</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.003088713731734358</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.005194747615833141</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.002983356959040376</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.001360334331223151</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00342078003129096</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.002337840801987655</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0006675049484464456</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01042302413032943</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.007900804872616232</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.005317175893192092</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0009699836052281289</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.005416257453352237</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.00717513450094646</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.007656041452290258</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.006619343002309799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>0.007742423304142434</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.005104657725796715</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.003507569561360859</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.005298635512940087</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.003264386507636857</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.005066326220511487</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.002610145081531479</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.001449224572171731</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.003211997811151897</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.002693037017880123</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0005666912289188227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.005936880280577274</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.004060760856642779</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.005701757749056549</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.002042587487120246</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.00538256765028844</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.00746076949279977</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.006619343002309799</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.007589977698370966</v>
       </c>
     </row>
   </sheetData>
@@ -742,13 +2068,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:Y36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="36.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -758,27 +2088,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>AAPL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MCD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>WMT</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -789,19 +2189,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02237978724539413</v>
+        <v>0.009617602551001754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006997668776951506</v>
+        <v>0.01061806251587135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01332204253360869</v>
+        <v>0.01047893337648097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01117044777078469</v>
+        <v>0.006877550385063083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01365863588846816</v>
+        <v>0.01808786285033826</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04466093073072485</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00699766436593809</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01117045056761857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02237978770475042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01490246711547722</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01172411643005564</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.06164514773436639</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1952406533757012</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04040141534664503</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.006617192691654433</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01330670120762459</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.005147025682623598</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01229552370635794</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01663078033429726</v>
       </c>
     </row>
     <row r="4">
@@ -811,19 +2253,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08652841752524064</v>
+        <v>0.1566163130592688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07074761266757473</v>
+        <v>0.1093122950429686</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05067243499138208</v>
+        <v>0.05521718784687713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06614923021904018</v>
+        <v>0.1059057964957516</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05399616208466668</v>
+        <v>0.06778525275762627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1378301485340541</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07074760089195654</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0661492560950012</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.08652838318049329</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08934555713550009</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04536284094234283</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6455972305224568</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.766657736973364</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1877079290471799</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1104925192282956</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.07378442491534155</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1001864447990727</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.08698258662732997</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.086606488458406</v>
       </c>
     </row>
     <row r="5">
@@ -833,19 +2317,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6491665823253596</v>
+        <v>4.855440535489006</v>
       </c>
       <c r="C5" t="n">
-        <v>1.014524736714092</v>
+        <v>4.00420476085085</v>
       </c>
       <c r="D5" t="n">
-        <v>1.269189702495271</v>
+        <v>1.13490124652089</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7226592047335911</v>
+        <v>1.08187000900784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7090942762491879</v>
+        <v>-0.5438554802759432</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04727124457399823</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.014526159471211</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7226533950498371</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.6491650863552252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.99745805710198</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.05331746292123496</v>
+      </c>
+      <c r="M5" t="n">
+        <v>46.81085429886442</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77.25184585287468</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.788456544031418</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.391637158208908</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.003417528124866</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.584496717577585</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1098174421691938</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.099650706997965</v>
       </c>
     </row>
     <row r="6">
@@ -855,19 +2381,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09356845459098055</v>
+        <v>0.09881098077260546</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07981097223800847</v>
+        <v>0.01642704750078317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1153529304114476</v>
+        <v>0.01490907040757031</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5414779898037958</v>
+        <v>-0.01253390053832688</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5016715796895258</v>
+        <v>-0.05814954122225605</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1702197708675541</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.07981307903978699</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5414759787305828</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.09356850282924845</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2136117340298209</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.05850197527787201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.309432352875461</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.826042086608329</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.100098028401836</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.210583464384414</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.04792983233582538</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.006368831089380686</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1706636014605805</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03747842204540018</v>
       </c>
     </row>
     <row r="8">
@@ -886,6 +2454,101 @@
           <t>Annual</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -894,10 +2557,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01350571644304144</v>
+        <v>0.0408474005275123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1620685973164972</v>
+        <v>0.4901688063301476</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001466275659824047</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1085043988269795</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.005865102639296188</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.002932551319648094</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007331378299120235</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01173020527859238</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05131964809384165</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.04838709677419355</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09237536656891496</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.05131964809384165</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1070381231671554</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.07771260997067449</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.124633431085044</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.05571847507331378</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.02932551319648094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1011730205278592</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0689149560117302</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.04985337243401759</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.004398826979472141</v>
       </c>
     </row>
     <row r="10">
@@ -907,10 +2627,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04465581391916347</v>
+        <v>0.2732427199079702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1546922771226652</v>
+        <v>0.9465405473578324</v>
       </c>
     </row>
     <row r="11">
@@ -920,10 +2640,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2464565188076994</v>
+        <v>0.1403418928798101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8537504248629798</v>
+        <v>0.48615857779644</v>
       </c>
     </row>
     <row r="13">
@@ -942,6 +2662,101 @@
           <t>Annual</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -950,10 +2765,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0124979259303132</v>
+        <v>0.01356784368799381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1499751111637584</v>
+        <v>0.1628141242559257</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.03848127538448403</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09477248968827713</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4249550274108898</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.06127694995919442</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.0404541991381052</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.04486166959799507</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.1192777689334972</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1000137320944303</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01637921329389379</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2061934231853447</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4824821630872529</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.0122022041735511</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.007687716371173228</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.03943963395356358</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0001468809394198003</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2344005149724901</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.3404257754813122</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.09649207286007502</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.03289624271845599</v>
       </c>
     </row>
     <row r="15">
@@ -963,10 +2835,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04124341174443538</v>
+        <v>0.03145312297049082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.14287136923769</v>
+        <v>0.1089568140832037</v>
       </c>
     </row>
     <row r="16">
@@ -976,10 +2848,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2424126789574369</v>
+        <v>0.3518837763225486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8397421527063273</v>
+        <v>1.218961157899713</v>
       </c>
     </row>
     <row r="18">
@@ -998,6 +2870,101 @@
           <t>Annual</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1006,10 +2973,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01350571644304144</v>
+        <v>0.0408474005275123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1620685973164973</v>
+        <v>0.4901688063301476</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.2155786829725951</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3746826300231486</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02900590729656043</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.3351643774433403</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.09838933262198968</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2725175635259956</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.08117535521286534</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1589027844246045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04155916582021842</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02758489624834798</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8684592658978646</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.02673717634552419</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.02920473658742611</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.06668011521861288</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.2748731423678901</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.6952160791694252</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.7109673299229947</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.5308952301501606</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.8309943864303854</v>
       </c>
     </row>
     <row r="20">
@@ -1019,10 +3043,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04167847930044292</v>
+        <v>0.06137032511132331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1443784874611498</v>
+        <v>0.2125930423396642</v>
       </c>
     </row>
     <row r="21">
@@ -1032,16 +3056,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2640623321140337</v>
+        <v>0.6248524911339749</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9147387511732662</v>
+        <v>2.164552523760052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Optimum Risky Protfolio metrics:</t>
+          <t>Optimum Risky Portfolio (on frontier) metrics:</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1052,6 +3076,101 @@
       <c r="C23" t="inlineStr">
         <is>
           <t>Annual</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>MS</t>
         </is>
       </c>
     </row>
@@ -1062,10 +3181,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0172876874235448</v>
+        <v>0.03752087475352862</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2074522490825376</v>
+        <v>0.4502504970423434</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1939830575629435</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3405498066161919</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.07728876471228197</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.301765976140272</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0814584642186649</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.233815681185125</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.08582164261549205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1273299670735932</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03848867015347213</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.04936479068741318</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8213924169669811</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.02496475167460138</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.02658090648821412</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.05373965277537607</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.2413366299796816</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.639023272945634</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.6657827237934488</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.4543903204109259</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.7336726425016039</v>
       </c>
     </row>
     <row r="25">
@@ -1075,10 +3251,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05015910254520721</v>
+        <v>0.05594944196523586</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1737562281407125</v>
+        <v>0.1938145522778296</v>
       </c>
     </row>
     <row r="26">
@@ -1088,10 +3264,442 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2948156301284898</v>
+        <v>0.6259378739700175</v>
       </c>
       <c r="C26" t="n">
-        <v>1.021271300495957</v>
+        <v>2.16831240019543</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Optimal Portfolio (max returns):</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Risk Free</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1735329671769798</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.082395606123758</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.883743435327725</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.9473634839378253</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.663157882463954</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3774584972881962</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1.473747604980316</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3978222398797831</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.141895798064534</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.4191308837324514</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.6218468908161562</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1879687901965136</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.2410849724559813</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4.011469824190467</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.1219214421054213</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1298143275668758</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2624506764585342</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-1.178626182367386</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.120825714269877</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-3.251512006680868</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-2.219125744383321</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.583068951496753</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2732427199079702</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9465405473578324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6259378739700175</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.16831240019543</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Optimal Portfolio (min standard deviation):</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Risk Free</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>AMC</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Expected Returns:</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0408474005275123</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4901688063301476</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.09498694128559748</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.2124089148620754</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3728975911020657</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.08463018806804386</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.3304298031978991</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.08919595457661816</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.2560251175655084</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.09397357794364332</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.1394246511799097</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.04214459120550071</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0540538011620143</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.8994139702498587</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.02733607707612627</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.02910574549212807</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.05884421801825911</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.2642604582816256</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6997221390530513</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.7290233882873823</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.4975514670965424</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.803361962717753</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.06126390832414966</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2122244037753382</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6259378739700175</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.16831240019543</v>
       </c>
     </row>
   </sheetData>
